--- a/experiment result/64_0.3_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.3_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06506623885228255</v>
+        <v>0.007429485423125455</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07187098814523442</v>
+        <v>0.01007630641802597</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07000161671046132</v>
+        <v>0.01193141333711865</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06133536857211084</v>
+        <v>0.01192437732059736</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04762396784189853</v>
+        <v>0.005688661568201686</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07874447180191517</v>
+        <v>0.01381079379562348</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05932394178174832</v>
+        <v>0.005804921512990878</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06192135660168487</v>
+        <v>0.02340060219769655</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06019261374491053</v>
+        <v>0.01573837269956316</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05955962503003074</v>
+        <v>0.0134322449832082</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1105548920377661</v>
+        <v>0.02665036486598759</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07608560059027326</v>
+        <v>0.02871905058551557</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06126784092522237</v>
+        <v>0.005251081706412397</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1039264871080397</v>
+        <v>0.007452779712002813</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09605384873024683</v>
+        <v>0.02552989623369489</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08041065549414195</v>
+        <v>0.01271404670599931</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06835055716472566</v>
+        <v>0.01206552974586919</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06689245452555795</v>
+        <v>0.003142226593387408</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06345379850754874</v>
+        <v>0.01426960285000718</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07468574000234351</v>
+        <v>0.01238502360904025</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06225489007618619</v>
+        <v>0.008723359193397793</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06057796716860525</v>
+        <v>0.009574726640912972</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07851620968413482</v>
+        <v>0.0213454270063896</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03099592298112227</v>
+        <v>0.003270550618678844</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03613568703603749</v>
+        <v>0.003467483711814089</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09032921467287859</v>
+        <v>0.02294419854603737</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07296966615434368</v>
+        <v>0.01325294055832686</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04892989638166412</v>
+        <v>0.02447726647759868</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05673612343732218</v>
+        <v>0.01168780212017187</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09497030971108877</v>
+        <v>0.01057456696159736</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04312596561084942</v>
+        <v>0.002609855929488058</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05584187073552297</v>
+        <v>0.002558579745577618</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09306203708237101</v>
+        <v>0.01274520287793731</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05155756305316436</v>
+        <v>0.00399020692396918</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04596500015573552</v>
+        <v>0.01188945600907635</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07858121776159963</v>
+        <v>0.01012771435570186</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06503625862169132</v>
+        <v>0.003358337078097331</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1158987046840066</v>
+        <v>0.01640747434838005</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.04759205730582991</v>
+        <v>0.01742426091211973</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09158002531131207</v>
+        <v>0.02220820950777572</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1032105394291856</v>
+        <v>0.02191290314938852</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06155053100238574</v>
+        <v>0.01170700016285024</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03838332655393687</v>
+        <v>0.004738626162848015</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05222354345250302</v>
+        <v>0.008453940209078784</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07430227316618074</v>
+        <v>0.02973310428668512</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06766759972824203</v>
+        <v>0.01484320139633473</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08622423175216613</v>
+        <v>0.02828614510985099</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04632695159787517</v>
+        <v>0.001799133916519098</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.07605002553552125</v>
+        <v>0.01144383208890679</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.05677835465994104</v>
+        <v>0.001224548479080396</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04894158734571465</v>
+        <v>0.009641379969959958</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05866762523875062</v>
+        <v>0.01039966643939497</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03129654437348406</v>
+        <v>0.0001171496443276242</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04484785197371488</v>
+        <v>0.001806757827168596</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0800192239593277</v>
+        <v>0.009141816389618248</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06540557131060627</v>
+        <v>0.01882050302533192</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05507500182556516</v>
+        <v>0.005688178273875638</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0517451952434389</v>
+        <v>0.004355773500827573</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07662514069920977</v>
+        <v>0.01563829194563525</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06539955677757785</v>
+        <v>0.004524575264372131</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02118537484531861</v>
+        <v>0.0005173488496475809</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04717326445713046</v>
+        <v>0.01338293093962635</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0728310458295669</v>
+        <v>0.01189555648733237</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03383651736045273</v>
+        <v>0.001918261751502633</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07980951680077407</v>
+        <v>0.0377126974387287</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08853285279020576</v>
+        <v>0.02451774304224264</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03810012448315102</v>
+        <v>0.01024153880061613</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05767413330595465</v>
+        <v>0.004023718252367471</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04203645287759697</v>
+        <v>0.002734382143825867</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04458162215322363</v>
+        <v>0.006548768812769688</v>
       </c>
     </row>
   </sheetData>
